--- a/World Map.xlsx
+++ b/World Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brixtinwalker/Desktop/BYU/Playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041034B-D8EB-F349-8748-AE5538267138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0594B9-65A6-7840-8B7D-0E103A67C2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,6 +124,9 @@
     <t>Land 34</t>
   </si>
   <si>
+    <t>Land 36</t>
+  </si>
+  <si>
     <t>Land 38</t>
   </si>
   <si>
@@ -223,16 +226,12 @@
     <t>Land 70</t>
   </si>
   <si>
-    <t>Palutena's Temple
-Palutena, Ness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temple
-</t>
-  </si>
-  <si>
-    <t>Land 36
-Ganondorf, Zelda, 1</t>
+    <t>Temple
+Ganondorf, Zelda</t>
+  </si>
+  <si>
+    <t>Luigi's Mansion
+Bowser, Bowser Jr.</t>
   </si>
 </sst>
 </file>
@@ -248,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,19 +262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF9370DB"/>
+        <bgColor rgb="FF9370DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
-        <bgColor rgb="FFD3D3D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF98FB98"/>
         <bgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
@@ -307,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -316,9 +309,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -625,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H8:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -744,116 +734,116 @@
       <c r="L11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="8:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="8:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="8:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
